--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
   </si>
   <si>
     <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
   </si>
   <si>
     <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
   </si>
   <si>
     <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="44">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Pair Coverage)</t>
   </si>
   <si>
-    <t>Size: 4 test case(s))</t>
+    <t>Size: 5 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -113,13 +113,22 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para ordenar pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
   </si>
   <si>
     <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
   </si>
   <si>
-    <t>TC3</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
@@ -128,7 +137,7 @@
     <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
-    <t>TC4</t>
+    <t>TC5</t>
   </si>
   <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
@@ -330,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -912,6 +921,128 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B3:C3"/>
@@ -924,6 +1055,8 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:F41"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -113,28 +113,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Clica para ordenar pelo nome do servidor.</t>
   </si>
   <si>
     <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -113,28 +113,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para ordenar pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
   </si>
   <si>
     <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
-    <t>TC3</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
   </si>
   <si>
     <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica para ordenar pelo nome do servidor.</t>
-  </si>
-  <si>
-    <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -113,19 +113,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Chefe Clica para ordenar pelo nome do servidor.</t>
   </si>
   <si>
     <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
+++ b/output/xlsx/UC011 - Listar Solicitações de Diárias--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -113,37 +113,37 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Chefe Clica para ordenar pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Chefe Indica alguns parâmetros específicos para a busca; Informa o nome do beneficiário; Filtra a listagem de solicitações.</t>
   </si>
   <si>
     <t>SYSTEM Exibe uma nova listagem de solicitações, de acordo com os filtros informados pelo usuário.</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Chefe Clica para ordenar pelo nome do servidor.</t>
-  </si>
-  <si>
-    <t>SYSTEM Visualiza os registros de solicitações de diária ordenado pelo nome do servidor.</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Chefe Clica para realizar o cancelamento de uma diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Verifica que a solicitação está em situação SOLICITADA; Exibe mensagem de confirmação (MSG987 - Cancelar solicitação de diária) para o usuário (que deve confirmar); Cancela a diária, mudando sua situação para CANCELADA (ver diagrama de estados da diária).</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe o detalhamento em modal para o usuário; Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Exibe o detalhamento em modal para o usuário; Apresenta a tela de Detalhar Diárias.</t>
   </si>
 </sst>
 </file>
